--- a/biology/Zoologie/Calao_à_cimier/Calao_à_cimier.xlsx
+++ b/biology/Zoologie/Calao_à_cimier/Calao_à_cimier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_cimier</t>
+          <t>Calao_à_cimier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhyticeros cassidix
 Le Calao à cimier (Rhyticeros cassidix, anciennement Aceros cassidix) est une espèce asiatique d'oiseaux appartenant à la famille des Bucerotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_cimier</t>
+          <t>Calao_à_cimier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Calao à cimier vit notamment sur Célèbes (Sulawesi) et les îles Togian.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_cimier</t>
+          <t>Calao_à_cimier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'étude phylogénique de Gonzalez et al. (2013), le Congrès ornithologique international (COI) (dans sa version 4.4, 2014) déplace cette espèce depuis le genre Aceros vers le genre Rhyticeros.
 D'après le COI, c'est une espèce monotypique (non divisée en sous-espèces).
